--- a/frontend-cemos/public/assets/content/direito/8-cnudm/script/vf6.xlsx
+++ b/frontend-cemos/public/assets/content/direito/8-cnudm/script/vf6.xlsx
@@ -483,27 +483,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pág 22</t>
+          <t>Pág. 22</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Parte VI</t>
+          <t>Parte VI - Plataforma Continental</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A plataforma continental compreende o leito e subsolo até ao bordo exterior da margem continental, ou até 200 milhas se a margem não atingir essa distância.</t>
+          <t>A plataforma continental compreende o leito e o subsolo das áreas submarinas além do mar territorial, estendendo-se até o bordo exterior da margem continental ou até 200 milhas marítimas se a margem não atingir essa distância.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>A plataforma continental estende-se sempre até 350 milhas marítimas, independentemente da configuração geológica da margem continental.</t>
+          <t>A plataforma continental limita-se estritamente a uma distância de 200 milhas marítimas das linhas de base, independentemente da extensão geológica do prolongamento natural do território terrestre.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>O Artigo 76 define o limite pelo bordo exterior da margem ou pela distância de 200 milhas caso a margem seja menor.</t>
+          <t>Conforme o **art. 76, parágrafo 1º**, a definição abrange o prolongamento natural até o bordo exterior da margem ou a distância de 200 milhas caso o bordo não atinja tal distância.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -517,27 +517,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pág 22</t>
+          <t>Pág. 22</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Parte VI</t>
+          <t>Parte VI - Plataforma Continental</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A margem continental não compreende nem os grandes fundos oceânicos, com as suas cristas oceânicas, nem o seu subsolo.</t>
+          <t>A margem continental não compreende os grandes fundos oceânicos, com as suas cristas oceânicas, nem o seu subsolo.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>A margem continental inclui juridicamente os grandes fundos oceânicos e as cristas oceânicas profundas.</t>
+          <t>A margem continental engloba, além do talude e elevação continental, os grandes fundos oceânicos e suas respectivas cristas oceânicas.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>O Artigo 76, parágrafo 3, exclui expressamente os grandes fundos oceânicos da definição de margem continental.</t>
+          <t>De acordo com o **art. 76, parágrafo 3º**, a margem continental exclui expressamente os grandes fundos oceânicos e suas cristas.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -551,27 +551,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pág 22</t>
+          <t>Pág. 22</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Parte VI</t>
+          <t>Parte VI - Plataforma Continental</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Os limites exteriores da plataforma continental não devem exceder 350 milhas das linhas de base ou 100 milhas da isóbata de 2500 metros.</t>
+          <t>Salvo prova em contrário, o pé do talude continental deve ser determinado como o ponto de variação máxima do gradiente na sua base.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Não há limite máximo para a extensão da plataforma continental, desde que comprovada a continuidade geológica das rochas sedimentares.</t>
+          <t>O pé do talude continental é determinado, invariavelmente, pela isóbata de 200 metros de profundidade, independentemente da variação do gradiente.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>O Artigo 76, parágrafo 5, impõe limites absolutos (350 milhas ou 100 milhas da isóbata de 2500m).</t>
+          <t>Segundo o **art. 76, parágrafo 4º, alínea 'b'**, o critério para determinar o pé do talude é o ponto de variação máxima do gradiente na sua base.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -585,27 +585,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pág 23</t>
+          <t>Pág. 23</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Parte VI</t>
+          <t>Parte VI - Plataforma Continental</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>No caso das cristas submarinas, o limite exterior da plataforma continental não deve exceder 350 milhas marítimas das linhas de base.</t>
+          <t>No caso de cristas submarinas, o limite exterior da plataforma continental não deve exceder 350 milhas marítimas das linhas de base.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Nas cristas submarinas, o Estado pode estender sua plataforma além de 350 milhas se utilizar o critério da isóbata de 2500 metros.</t>
+          <t>As cristas submarinas permitem a extensão da plataforma continental até 100 milhas marítimas da isóbata de 2500 metros, mesmo que ultrapassem 350 milhas da linha de base.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>O Artigo 76, parágrafo 6, estabelece um teto rígido de 350 milhas para cristas submarinas.</t>
+          <t>O texto do **art. 76, parágrafo 6º**, estabelece um limite máximo de 350 milhas especificamente para o caso das cristas submarinas.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -619,12 +619,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pág 23</t>
+          <t>Pág. 23</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Parte VI</t>
+          <t>Parte VI - Plataforma Continental</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -634,12 +634,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Para exercer direitos sobre a plataforma continental, o Estado costeiro deve proclamar formalmente a sua soberania e ocupar efetivamente a área.</t>
+          <t>Para exercer direitos exclusivos sobre a plataforma continental, o Estado costeiro deve realizar a ocupação efetiva da área ou emitir uma declaração expressa de soberania.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>O Artigo 77, parágrafo 3, afirma que os direitos independem de ocupação ou declaração.</t>
+          <t>Conforme o **art. 77, parágrafo 3º**, os direitos independem de ocupação ou declaração expressa.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -653,27 +653,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pág 23</t>
+          <t>Pág. 23</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Parte VI</t>
+          <t>Parte VI - Plataforma Continental</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Os direitos do Estado costeiro sobre a plataforma continental não afetam o regime jurídico das águas sobrejacentes ou do espaço aéreo.</t>
+          <t>Os direitos do Estado costeiro sobre a plataforma continental não afetam o regime jurídico das águas sobrejacentes ou do espaço aéreo acima dessas águas.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>A soberania sobre a plataforma continental estende-se automaticamente às águas sobrejacentes e ao espaço aéreo acima delas.</t>
+          <t>A soberania do Estado costeiro sobre a plataforma continental estende-se automaticamente às águas sobrejacentes e ao espaço aéreo acima delas.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>O Artigo 78 garante que o regime jurídico das águas e do espaço aéreo permanece inalterado (alto mar ou ZEE).</t>
+          <t>Segundo o **art. 78, parágrafo 1º**, os direitos sobre a plataforma não alteram o regime jurídico das águas ou do ar sobrejacentes.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -687,27 +687,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pág 24</t>
+          <t>Pág. 24</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Parte VI</t>
+          <t>Parte VI - Plataforma Continental</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>O Estado costeiro tem o direito exclusivo de autorizar e regulamentar as perfurações na plataforma continental, quaisquer que sejam os fins.</t>
+          <t>O Estado costeiro terá o direito exclusivo de autorizar e regulamentar as perfurações na plataforma continental, quaisquer que sejam os fins.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>O Estado costeiro só pode regular perfurações com fins comerciais; perfurações para fins científicos são livres na plataforma continental.</t>
+          <t>O Estado costeiro tem direito exclusivo de autorizar perfurações apenas se tiverem fins comerciais, sendo livre a perfuração para fins científicos.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>O Artigo 81 confere direito exclusivo sobre perfurações "quaisquer que sejam os fins".</t>
+          <t>De acordo com o **art. 81**, o direito exclusivo de autorizar perfurações aplica-se a quaisquer que sejam os fins.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -721,27 +721,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pág 24</t>
+          <t>Pág. 24</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Parte VI</t>
+          <t>Parte VI - Plataforma Continental</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>O Estado costeiro deve efetuar pagamentos ou contribuições em espécie relativos ao aproveitamento dos recursos não vivos além de 200 milhas.</t>
+          <t>O Estado costeiro deve efetuar pagamentos ou contribuições em espécie relativos ao aproveitamento dos recursos não vivos da plataforma continental além de 200 milhas marítimas.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>O aproveitamento de recursos na plataforma continental é isento de quaisquer pagamentos internacionais, mesmo além das 200 milhas.</t>
+          <t>O aproveitamento dos recursos da plataforma continental é isento de quaisquer pagamentos internacionais, mesmo quando realizado além das 200 milhas marítimas.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>O Artigo 82 obriga o pagamento ou contribuição pelo aproveitamento além das 200 milhas.</t>
+          <t>Conforme o **art. 82, parágrafo 1º**, são exigidos pagamentos ou contribuições pelo aproveitamento além das 200 milhas.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -755,27 +755,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pág 24</t>
+          <t>Pág. 24</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Parte VI</t>
+          <t>Parte VI - Plataforma Continental</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>A taxa de contribuição sobre a produção no sítio aumenta anualmente até atingir 7% no décimo segundo ano, mantendo-se daí por diante.</t>
+          <t>A delimitação da plataforma continental entre Estados com costas adjacentes deve ser feita por acordo, a fim de se chegar a uma solução equitativa.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>A taxa de contribuição é fixa em 10% desde o primeiro ano de produção comercial na plataforma continental estendida.</t>
+          <t>A delimitação da plataforma continental entre Estados adjacentes deve seguir obrigatoriamente o princípio da equidistância, independentemente de acordo prévio.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>O Artigo 82, parágrafo 2, define o escalonamento da taxa até o teto de 7%.</t>
+          <t>Segundo o **art. 83, parágrafo 1º**, a delimitação deve ser feita por acordo visando uma solução equitativa, conforme o direito internacional.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -789,27 +789,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pág 25</t>
+          <t>Pág. 25</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Parte VI</t>
+          <t>Parte VI - Plataforma Continental</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>O Estado costeiro deve depositar exemplares das cartas dos limites da plataforma junto do Secretário Geral da ONU e do Secretário Geral da Autoridade.</t>
+          <t>O Estado costeiro deve depositar um exemplar das cartas ou listas de coordenadas junto do Secretário Geral das Nações Unidas e, para os limites exteriores, junto do Secretário Geral da Autoridade.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>As cartas de limites da plataforma continental devem ser depositadas apenas junto à Organização Hidrográfica Internacional, sem necessidade de envio à ONU.</t>
+          <t>O depósito das cartas de limites da plataforma continental deve ser feito exclusivamente junto ao governo do Estado costeiro, sem necessidade de envio a órgãos internacionais.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>O Artigo 84 exige o depósito junto ao Secretário Geral da ONU e, para limites exteriores, também junto à Autoridade.</t>
+          <t>O texto do **art. 84, parágrafo 2º**, determina o depósito junto ao Secretário Geral da ONU e, no caso de limites exteriores, também junto ao Secretário Geral da Autoridade.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -823,27 +823,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Pág 25</t>
+          <t>Pág. 25</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Parte VI</t>
+          <t>Parte VI - Plataforma Continental</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>O Estado costeiro tem o direito de aproveitar o subsolo por meio de escavação de túneis, independentemente da profundidade das águas.</t>
+          <t>O Estado costeiro tem o direito de aproveitar o subsolo por meio de escavação de túneis, independentemente da profundidade das águas no local.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>A escavação de túneis no subsolo da plataforma continental só é permitida em áreas onde a profundidade das águas seja inferior a 200 metros.</t>
+          <t>A escavação de túneis no subsolo da plataforma continental é permitida apenas em águas com profundidade inferior a 200 metros.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>O Artigo 85 garante o direito de escavação de túneis independentemente da profundidade.</t>
+          <t>Conforme o **art. 85**, o direito de escavação de túneis independe da profundidade das águas.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -857,27 +857,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Pág 25</t>
+          <t>Pág. 25</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Parte VI</t>
+          <t>Parte VI - Plataforma Continental</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>O Estado costeiro deve dar a devida publicidade às cartas ou listas de coordenadas geográficas dos limites da plataforma continental.</t>
+          <t>O Estado costeiro deve dar a devida publicidade às cartas ou listas de coordenadas geográficas que indicam as linhas de limite exterior da plataforma continental.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>As informações sobre os limites exteriores da plataforma continental são consideradas segredo de Estado e não devem ser publicadas.</t>
+          <t>As informações sobre as coordenadas dos limites da plataforma continental são sigilosas e não devem ser objeto de publicidade pelo Estado costeiro.</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>O Artigo 84, parágrafo 2, exige expressamente a devida publicidade das cartas ou listas.</t>
+          <t>Segundo o **art. 84, parágrafo 2º**, o Estado costeiro tem o dever de dar a devida publicidade a tais cartas ou listas.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
